--- a/arabe.xlsx
+++ b/arabe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\PC- Notas\ArabePortugues\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="13305" yWindow="1710" windowWidth="15495" windowHeight="7335"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="216">
   <si>
     <t>Língua Árabe</t>
   </si>
@@ -418,13 +423,262 @@
   </si>
   <si>
     <t>and Rosa</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>Dal</t>
+  </si>
+  <si>
+    <t>د</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ط</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>ج</t>
+  </si>
+  <si>
+    <t>´</t>
+  </si>
+  <si>
+    <t>ظ</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>ك</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>ح</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Zai</t>
+  </si>
+  <si>
+    <t>ز</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Kha</t>
+  </si>
+  <si>
+    <t>خ</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Dhal</t>
+  </si>
+  <si>
+    <t>ن</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ه</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ة</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Tá</t>
+  </si>
+  <si>
+    <t>ت</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>ع</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>ى</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Alef</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>غ</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>لا</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ل</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ف</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>ر</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Bá</t>
+  </si>
+  <si>
+    <t>ب</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ق</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ؤ</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Thá</t>
+  </si>
+  <si>
+    <t>ث</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ء</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>س</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>ص</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ئ</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Shin</t>
+  </si>
+  <si>
+    <t>ش</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>Dhad</t>
+  </si>
+  <si>
+    <t>ض</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Teclado árabe</t>
+  </si>
+  <si>
+    <t>Aprendendo árabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +853,13 @@
       <color rgb="FF3C3C3C"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -621,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,6 +923,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +963,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>942975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -711,7 +976,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -719,6 +984,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1018,7 +1289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1027,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51" x14ac:dyDescent="0.75"/>
@@ -1047,12 +1318,26 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="I1" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+    </row>
+    <row r="2" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -1071,8 +1356,20 @@
       <c r="H2" s="21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+    </row>
+    <row r="3" spans="1:21" ht="49.5" x14ac:dyDescent="0.65">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1091,9 +1388,22 @@
       <c r="H3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="I3" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" ht="49.5" x14ac:dyDescent="0.65">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1112,9 +1422,40 @@
       <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="I4" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="32">
+        <v>15</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>13</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:21" ht="49.5" x14ac:dyDescent="0.65">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1133,9 +1474,40 @@
       <c r="H5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="I5" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="32">
+        <v>14</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>12</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:21" ht="49.5" x14ac:dyDescent="0.65">
       <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
@@ -1154,9 +1526,36 @@
       <c r="H6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="I6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="32">
+        <v>4</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="T6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" ht="49.5" x14ac:dyDescent="0.65">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -1175,9 +1574,41 @@
       <c r="H7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="I7" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>2</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1196,9 +1627,32 @@
       <c r="H8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="I8" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="T8" s="32"/>
+    </row>
+    <row r="9" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1217,9 +1671,36 @@
       <c r="H9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="I9" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>1</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
@@ -1238,9 +1719,36 @@
       <c r="H10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="I10" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>3</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
@@ -1259,9 +1767,36 @@
       <c r="H11" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.95">
+      <c r="I11" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>9</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.95">
       <c r="A12" s="18" t="s">
         <v>42</v>
       </c>
@@ -1280,9 +1815,41 @@
       <c r="H12" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.95">
+      <c r="I12" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="32">
+        <v>7</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.95">
       <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
@@ -1301,9 +1868,36 @@
       <c r="H13" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="66.75" x14ac:dyDescent="0.85">
+      <c r="I13" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="32">
+        <v>6</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" s="32"/>
+    </row>
+    <row r="14" spans="1:21" ht="66.75" x14ac:dyDescent="0.85">
       <c r="A14" s="28" t="s">
         <v>48</v>
       </c>
@@ -1322,9 +1916,34 @@
       <c r="H14" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.95">
+      <c r="I14" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="32">
+        <v>5</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+    </row>
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.95">
       <c r="A15" s="18" t="s">
         <v>46</v>
       </c>
@@ -1337,8 +1956,32 @@
       <c r="E15" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="66.75" x14ac:dyDescent="0.85">
+      <c r="I15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="32">
+        <v>8</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+    </row>
+    <row r="16" spans="1:21" ht="66.75" x14ac:dyDescent="0.85">
       <c r="A16" s="16" t="s">
         <v>44</v>
       </c>
@@ -1671,6 +2314,9 @@
   <sortState ref="G2:H11">
     <sortCondition ref="H2:H11"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="I3:S3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1691,7 +2337,7 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:rowOff>942975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
